--- a/Assets/外部修改檔案/Exam01.xlsx
+++ b/Assets/外部修改檔案/Exam01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPUP\Desktop\Projects\m97532007\Unity\VR_Long-term_Care\Assets\外部修改檔案\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPUP\Desktop\Projects\VR_Long-term_Care\Assets\外部修改檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0FE630-1BF4-4177-B2D0-C6D1D7A32C6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA537F19-4516-4917-A771-8289D57C4AAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>醫療教案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>未正確告知結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要操作的次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一次操作的分數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +574,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -602,6 +610,12 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
